--- a/po_analysis_by_asin/B0D8HD6L6N_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8HD6L6N_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>166</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>52</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>30</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>16</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>244</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>74</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45628</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>138</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>166</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>140</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>318</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45627</v>
+        <v>45657.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>138</v>

--- a/po_analysis_by_asin/B0D8HD6L6N_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8HD6L6N_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -573,7 +574,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -623,6 +624,327 @@
       </c>
       <c r="B7" t="n">
         <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-75.56019086677601</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108.2061925380546</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-52.97906891223666</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128.2695167095884</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>54</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-40.73921709358449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>146.7882516468355</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-37.36764918883167</v>
+      </c>
+      <c r="D5" t="n">
+        <v>146.0037128375267</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-31.46621974030887</v>
+      </c>
+      <c r="D6" t="n">
+        <v>151.4592252052859</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-23.03860662847845</v>
+      </c>
+      <c r="D7" t="n">
+        <v>159.9671926038345</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>69</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-19.63141161062773</v>
+      </c>
+      <c r="D8" t="n">
+        <v>162.7554870318056</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>73</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-17.45240656778304</v>
+      </c>
+      <c r="D9" t="n">
+        <v>163.9978495723221</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>77</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-13.92056520371368</v>
+      </c>
+      <c r="D10" t="n">
+        <v>173.540746934993</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>81</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.04043508985082</v>
+      </c>
+      <c r="D11" t="n">
+        <v>178.0749566684471</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.199377309173539</v>
+      </c>
+      <c r="D12" t="n">
+        <v>172.7392283724523</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.274994276885536</v>
+      </c>
+      <c r="D13" t="n">
+        <v>187.8544037223732</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.49960424706407</v>
+      </c>
+      <c r="D14" t="n">
+        <v>192.5033696091974</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>104</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16.659159887951</v>
+      </c>
+      <c r="D15" t="n">
+        <v>193.1230053616139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>108</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20.75227856381598</v>
+      </c>
+      <c r="D16" t="n">
+        <v>192.5180995169256</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>111</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.82557792108306</v>
+      </c>
+      <c r="D17" t="n">
+        <v>198.0183054535029</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>115</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19.08150236262851</v>
+      </c>
+      <c r="D18" t="n">
+        <v>204.9248404827731</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>119</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24.85430951876771</v>
+      </c>
+      <c r="D19" t="n">
+        <v>208.6269143853467</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>123</v>
+      </c>
+      <c r="C20" t="n">
+        <v>34.13709110330504</v>
+      </c>
+      <c r="D20" t="n">
+        <v>217.9489603008084</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>127</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.39656850334905</v>
+      </c>
+      <c r="D21" t="n">
+        <v>213.5935542549611</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D8HD6L6N_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8HD6L6N_po_data.xlsx
@@ -637,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,16 +656,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -674,12 +664,6 @@
       <c r="B2" t="n">
         <v>19</v>
       </c>
-      <c r="C2" t="n">
-        <v>-75.56019086677601</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108.2061925380546</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -688,12 +672,6 @@
       <c r="B3" t="n">
         <v>35</v>
       </c>
-      <c r="C3" t="n">
-        <v>-52.97906891223666</v>
-      </c>
-      <c r="D3" t="n">
-        <v>128.2695167095884</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -702,12 +680,6 @@
       <c r="B4" t="n">
         <v>54</v>
       </c>
-      <c r="C4" t="n">
-        <v>-40.73921709358449</v>
-      </c>
-      <c r="D4" t="n">
-        <v>146.7882516468355</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -716,12 +688,6 @@
       <c r="B5" t="n">
         <v>58</v>
       </c>
-      <c r="C5" t="n">
-        <v>-37.36764918883167</v>
-      </c>
-      <c r="D5" t="n">
-        <v>146.0037128375267</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -730,12 +696,6 @@
       <c r="B6" t="n">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
-        <v>-31.46621974030887</v>
-      </c>
-      <c r="D6" t="n">
-        <v>151.4592252052859</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -744,12 +704,6 @@
       <c r="B7" t="n">
         <v>65</v>
       </c>
-      <c r="C7" t="n">
-        <v>-23.03860662847845</v>
-      </c>
-      <c r="D7" t="n">
-        <v>159.9671926038345</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -758,12 +712,6 @@
       <c r="B8" t="n">
         <v>69</v>
       </c>
-      <c r="C8" t="n">
-        <v>-19.63141161062773</v>
-      </c>
-      <c r="D8" t="n">
-        <v>162.7554870318056</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -772,12 +720,6 @@
       <c r="B9" t="n">
         <v>73</v>
       </c>
-      <c r="C9" t="n">
-        <v>-17.45240656778304</v>
-      </c>
-      <c r="D9" t="n">
-        <v>163.9978495723221</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -786,12 +728,6 @@
       <c r="B10" t="n">
         <v>77</v>
       </c>
-      <c r="C10" t="n">
-        <v>-13.92056520371368</v>
-      </c>
-      <c r="D10" t="n">
-        <v>173.540746934993</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -800,12 +736,6 @@
       <c r="B11" t="n">
         <v>81</v>
       </c>
-      <c r="C11" t="n">
-        <v>-12.04043508985082</v>
-      </c>
-      <c r="D11" t="n">
-        <v>178.0749566684471</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -814,12 +744,6 @@
       <c r="B12" t="n">
         <v>84</v>
       </c>
-      <c r="C12" t="n">
-        <v>-2.199377309173539</v>
-      </c>
-      <c r="D12" t="n">
-        <v>172.7392283724523</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -828,12 +752,6 @@
       <c r="B13" t="n">
         <v>96</v>
       </c>
-      <c r="C13" t="n">
-        <v>5.274994276885536</v>
-      </c>
-      <c r="D13" t="n">
-        <v>187.8544037223732</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -842,12 +760,6 @@
       <c r="B14" t="n">
         <v>100</v>
       </c>
-      <c r="C14" t="n">
-        <v>12.49960424706407</v>
-      </c>
-      <c r="D14" t="n">
-        <v>192.5033696091974</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -856,12 +768,6 @@
       <c r="B15" t="n">
         <v>104</v>
       </c>
-      <c r="C15" t="n">
-        <v>16.659159887951</v>
-      </c>
-      <c r="D15" t="n">
-        <v>193.1230053616139</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -870,12 +776,6 @@
       <c r="B16" t="n">
         <v>108</v>
       </c>
-      <c r="C16" t="n">
-        <v>20.75227856381598</v>
-      </c>
-      <c r="D16" t="n">
-        <v>192.5180995169256</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -884,12 +784,6 @@
       <c r="B17" t="n">
         <v>111</v>
       </c>
-      <c r="C17" t="n">
-        <v>23.82557792108306</v>
-      </c>
-      <c r="D17" t="n">
-        <v>198.0183054535029</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -898,12 +792,6 @@
       <c r="B18" t="n">
         <v>115</v>
       </c>
-      <c r="C18" t="n">
-        <v>19.08150236262851</v>
-      </c>
-      <c r="D18" t="n">
-        <v>204.9248404827731</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -912,12 +800,6 @@
       <c r="B19" t="n">
         <v>119</v>
       </c>
-      <c r="C19" t="n">
-        <v>24.85430951876771</v>
-      </c>
-      <c r="D19" t="n">
-        <v>208.6269143853467</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -926,12 +808,6 @@
       <c r="B20" t="n">
         <v>123</v>
       </c>
-      <c r="C20" t="n">
-        <v>34.13709110330504</v>
-      </c>
-      <c r="D20" t="n">
-        <v>217.9489603008084</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -939,12 +815,6 @@
       </c>
       <c r="B21" t="n">
         <v>127</v>
-      </c>
-      <c r="C21" t="n">
-        <v>31.39656850334905</v>
-      </c>
-      <c r="D21" t="n">
-        <v>213.5935542549611</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D8HD6L6N_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8HD6L6N_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,30 @@
         <v>138</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -558,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,6 +650,14 @@
         <v>138</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -637,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,7 +694,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -670,7 +702,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -678,7 +710,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -686,7 +718,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +726,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +734,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -710,7 +742,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -718,7 +750,7 @@
         <v>45592.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +758,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -734,7 +766,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -742,7 +774,7 @@
         <v>45613.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -750,71 +782,95 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>119</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>127</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
